--- a/PDAData.xlsx
+++ b/PDAData.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:D346"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -385,108 +385,3063 @@
         <v>name</v>
       </c>
       <c r="B1" t="str">
+        <v>category</v>
+      </c>
+      <c r="C1" t="str">
         <v>price</v>
+      </c>
+      <c r="D1" t="str">
+        <v>discountPrice</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Entrecote Filé de Costela Bovino Resfriado Maturatta FRIBOI à Vácuo 1.1kg</v>
+        <v>Manga Desidratada TAEQ Pacote 50g</v>
       </c>
       <c r="B2" t="str">
-        <v>R$ 66,04</v>
+        <v>Feira</v>
+      </c>
+      <c r="C2" t="str">
+        <v>R$ 12,99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Fraldinha Bovina Resfriada Maturatta FRIBOI 1kg</v>
+        <v>Mix de Banana, Coco e Manga Liofilizados QUALITÁ Pote 35g</v>
       </c>
       <c r="B3" t="str">
-        <v>R$ 51,44</v>
+        <v>Feira</v>
+      </c>
+      <c r="C3" t="str">
+        <v>R$ 11,59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Picanha Resfriada Maturatta FRIBOI Peça 900g</v>
+        <v>Banana e Morango Liofilizados QUALITÁ Pote 30g</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C4" t="str">
+        <v>R$ 15,39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Contra Filé Maturatta FRIBOI Resfriado Pedaço 1,2kg</v>
+        <v>Arroz Integral Orgânico Cozido no Vapor VAPZA Caixa 250g</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C5" t="str">
+        <v>R$ 7,39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Filé Mignon Resfriado Maturata FRIBOI Peça 1,8kg8</v>
+        <v>Banana Passa com Cobertura Chocolate Branco BANANA MANIA 150g</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C6" t="str">
+        <v>R$ 13,39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Coração da Alcatra Resfriada Maturatta FRIBOI 1,5kg</v>
+        <v>Mandioquinha Liofilizada QUALITÁ Pote 20g</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C7" t="str">
+        <v>R$ 11,39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v/>
+        <v>Carne Bovina Cozida em Tiras VAPZA 400g</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C8" t="str">
+        <v>R$ 45,99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v/>
+        <v>Limão Pimenta CHINATOWN 40g</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C9" t="str">
+        <v>R$ 5,69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v/>
+        <v>Nozes Pecãs QUALITÁ 180g</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C10" t="str">
+        <v>R$ 32,99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v/>
+        <v>Castanha-de-Caju Granulada Xerém Qualitá Bandeja 200g</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C11" t="str">
+        <v>R$ 18,99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v/>
+        <v>Banana Passa com Cobertura de Chocolate Branco Light BANANA MANIA 150g</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C12" t="str">
+        <v>R$ 13,99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v/>
+        <v>Peito de Frango Desfiado e Cozido a Vapor Orgânico VAPZA Caixa 250g</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C13" t="str">
+        <v>R$ 37,99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v/>
+        <v>Maçã Desidratada TAEQ 30g</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C14" t="str">
+        <v>R$ 6,99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v/>
+        <v>Banana Passa Orgânica BIO DA TERRA 200g</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C15" t="str">
+        <v>R$ 13,59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v/>
+        <v>Banana Passa com Cobertura de Chocolate BANANA MANIA 150g</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C16" t="str">
+        <v>R$ 11,99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v/>
+        <v>Amendoim Original Qualitá 180g</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C17" t="str">
+        <v>R$ 8,79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v/>
+        <v>Alho em Pasta sem Sal QUALITÁ 200g</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C18" t="str">
+        <v>R$ 6,99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
+        <v>Coentro em Grãos CHINATOWN Pacote 20g</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C19" t="str">
+        <v>R$ 4,19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Banana Passa BANANA MANIA 100g</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C20" t="str">
+        <v>R$ 5,99</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Banana Passa Orgânica Biodaterra Pacote 100g</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C21" t="str">
+        <v>R$ 7,39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Pimenta do Reino Preta em Pó CHINATOWN 20g</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C22" t="str">
+        <v>R$ 8,59</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Banana Passa com Cobertura de Chocolate Sem Lactose BANANA MANIA 150g</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C23" t="str">
+        <v>R$ 13,79</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Ovos de Codorna em Conservas CORBALAN 440g</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C24" t="str">
+        <v>R$ 14,90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Castanha-de-Caju Caramelizada com Gergelim Qualitá Bandeja 200g</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C25" t="str">
+        <v>R$ 29,99</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Carne Bovina Curada Desfiada Sabor Carne Seca Cozida a Vapor VAPZA 400g</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C26" t="str">
+        <v>R$ 45,99</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Maçã Liofilizada com Canela QUALITÁ Pote 20g</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C27" t="str">
+        <v>R$ 15,39</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Maçã com Canela Desidratada TAEQ Pacote 30g</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C28" t="str">
+        <v>R$ 6,99</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Batata Doce em Cubos VAPZA 500g</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C29" t="str">
+        <v>R$ 13,39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Amendoim Crocante Apimentado Bandeja QUALITÁ 180g</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C30" t="str">
+        <v>R$ 8,29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Maçã Verde Importada a Granel 700g</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C31" t="str">
+        <v>R$ 10,07</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Nozes Macadâmia QUALITÁ Torrada e Salgada 150g</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C32" t="str">
+        <v>R$ 34,99</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Tomate Grape Amarelo 180g</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C33" t="str">
+        <v>R$ 4,79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Edamame em Grãos Veggie Pacote 300g</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C34" t="str">
+        <v>R$ 17,79</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Alho Picado sem Sal QUALITÁ 300g</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C35" t="str">
+        <v>R$ 7,59</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Pêra Portuguesa Rocha a Granel 1Kg</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C36" t="str">
+        <v>R$ 14,99</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Pimenta Calabreza CHINATOWN Pacote 30g</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C37" t="str">
+        <v>R$ 6,69</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Beterraba a Granel 1 kg</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C38" t="str">
+        <v>R$ 4,59</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Maçã Gala Bandeja 1 kg</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C39" t="str">
+        <v>R$ 9,98</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Castanha-de-Caju Caramelizada Qualitá Bandeja 200g</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C40" t="str">
+        <v>R$ 29,99</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Noz Moscada CHINATOWN Pacote 9g</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C41" t="str">
+        <v>R$ 6,19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Ovos Branco Extra QUALITÁ Bandeja com 20 Unidades</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C42" t="str">
+        <v>R$ 17,39</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Pera WILLIANS Bandeja a Granel com 4 Unidades</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C43" t="str">
+        <v>R$ 11,37</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Melancia Unidade</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C44" t="str">
+        <v>R$ 21,68</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Grapefruit Importado a Granel 300g</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C45" t="str">
+        <v>R$ 5,94</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Banana Passa BRASIL Pacote 86g</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C46" t="str">
+        <v>R$ 4,49</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Tomate Uva Sweet Grape QUALITÁ 180g</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C47" t="str">
+        <v>R$ 8,19</v>
+      </c>
+      <c r="D47" t="str">
+        <v>R$ 6,99</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Mandioca Cozida a Vapor VAPZA 500g</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C48" t="str">
+        <v>R$ 12,39</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Berinjela Orgânica Fatiada SOLARIUS Vidro 210g</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C49" t="str">
+        <v>R$ 22,49</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Mandioquinha Cozida a Vapor VAPZA 500g</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C50" t="str">
+        <v>R$ 15,39</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Melão Doce Rei Unidade</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C51" t="str">
+        <v>R$ 30,94</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Alho Picado Frito QUALITÁ 90g</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C52" t="str">
+        <v>R$ 13,39</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Salada D´AUCY Verão Pacote 300g</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C53" t="str">
+        <v>R$ 5,19</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Ovos Vermelho Grandes Caipira QUALITÁ Bandeja com 10 Unidades</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C54" t="str">
+        <v>R$ 10,99</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Snack Orgânico Sabor Damasco, Uva &amp; Castanha do Pará Nuts BIO2 Pacote 50g</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C55" t="str">
+        <v>R$ 8,99</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Mamão Formosa Unidade</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C56" t="str">
+        <v>R$ 6,59</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Tomate Orgânico Swet Grape 180g</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C57" t="str">
+        <v>R$ 9,90</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Cenoura à Granel 1 kg</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C58" t="str">
+        <v>R$ 7,68</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Castanha de Caju Torradas sem Sal QUALITÁ 180g</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C59" t="str">
+        <v>R$ 26,99</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Abacaxi Pérola Unidade</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C60" t="str">
+        <v>R$ 8,99</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Coco Seco Unidade</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C61" t="str">
+        <v>R$ 6,35</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Mamão Papaya Golden a Granel com 2 Unidades</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C62" t="str">
+        <v>R$ 7,07</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Alho e Cebola com Ervas Finas sem Sal QUALITÁ Pote 1kg</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C63" t="str">
+        <v>R$ 17,90</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Frutas Cristalizadas Qualitá Bandeja 200g</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C64" t="str">
+        <v>R$ 6,59</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Ovos Vermelho Grandes Orgânicos TAEQ Bandeja com 10 Unidades</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C65" t="str">
+        <v>R$ 12,00</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Uva Clara sem Semente QUALITÁ 500g</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C66" t="str">
+        <v>R$ 8,79</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Alho Orgânico Picado FAMO Pote 150g</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C67" t="str">
+        <v>R$ 21,79</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Edamame na Vagem Veggie Pacote 300g</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C68" t="str">
+        <v>R$ 16,99</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Cebolinha em Conserva HEMMER Vidro 400g</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C69" t="str">
+        <v>R$ 18,49</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Ovos Branco Grandes Bandeja com 30 Unidades</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C70" t="str">
+        <v>R$ 16,39</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Tomate à Granel 1kg</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C71" t="str">
+        <v>R$ 7,99</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Ovos Branco Grandes QUALITÁ Bandeja com 12 Unidades</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C72" t="str">
+        <v>R$ 7,90</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Alho Granel 300g</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C73" t="str">
+        <v>R$ 11,97</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Laranja Pera 1 kg</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C74" t="str">
+        <v>R$ 4,49</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Mix de Grãos Cozido no Vapor Orgânico Vapza Caixa 250g</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C75" t="str">
+        <v>R$ 8,19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Amêndoa Laminada QUALITÁ 150g</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C76" t="str">
+        <v>R$ 23,39</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Ovos Orgânicos Ômega 3 com 10 Unidades</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C77" t="str">
+        <v>R$ 14,99</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Uva Itália QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C78" t="str">
+        <v>R$ 9,19</v>
+      </c>
+      <c r="D78" t="str">
+        <v>R$ 7,98</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Uva Niagara com Semente QUALITÁ 500g</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C79" t="str">
+        <v>R$ 5,49</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Abacaxi Hawai Unidade</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C80" t="str">
+        <v>R$ 9,79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Maça Fuji GNEL 1kg</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C81" t="str">
+        <v>R$ 9,98</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Banana Prata 1kg</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C82" t="str">
+        <v>R$ 6,99</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Tomate Italiano Bandeja 1 KG</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C83" t="str">
+        <v>R$ 9,88</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Maçã Red Importada Bandeja 700g</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C84" t="str">
+        <v>R$ 9,51</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Cebola Roxa Nacional 1kg</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C85" t="str">
+        <v>R$ 19,13</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Limão Tahiti 1 kg</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C86" t="str">
+        <v>R$ 4,29</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Abobrinha Italiana 800g</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C87" t="str">
+        <v>R$ 3,99</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Ovos Vermelho Grandes QUALITÁ Bandeja com 10 Unidades</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C88" t="str">
+        <v>R$ 10,59</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Ovos de Codorna QUALITÁ Bandeja com 30 Unidades</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C89" t="str">
+        <v>R$ 4,99</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Batata Comum Pacote 1 kg</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C90" t="str">
+        <v>R$ 7,98</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Banana Nanica 1 KG</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C91" t="str">
+        <v>R$ 7,18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Batata Doce Rosada a Granel 1kg</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C92" t="str">
+        <v>R$ 4,99</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Ovos Branco Jumbo Bandeja com 20 Unidades</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C93" t="str">
+        <v>R$ 13,90</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Banana Passa com Cobertura de Chocolate ao Leite Light BANANA MANIA 150g</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Feira</v>
+      </c>
+      <c r="C94" t="str">
+        <v>R$ 12,59</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Pimentão Amarelo QUALITÁ Bandeja 300g</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Couve Manteiga Corte Fino Higienizado QUALITÀ 180g</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Kiwi Green ZESPRI 440g</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Cebolinha Maço</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Batata para Assar e Cozinhar QUALITÁ Pacote 1,5kg</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Tomate Cereja Orgânico TAEQ Bandeja 250g</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Berinjela Mini Orgânica RIO BONITO 200g</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Pêra D`Anjou Importada a Granel com 4 unidades</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Ovos Vermelho Grandes Caipira ITO Country Bandeja com 10 Unidades</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Tomate Italiano Super a Granel 1kg</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Maçãs Orgânicas FAMÍLIA SALUTE 500 g</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Manga Haden com 2 unidades</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Nozes sem Casca QUALITÁ Bandeja 140g</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Alface Lisa Orgânica TAEQ Unidade</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Mamão Papaya Orgânico TAEQ 600g</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Chuchu Extra Bandeja 900g</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Pera Portuguesa QUALITÁ Pacote 1kg</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Castanha do Pará sem Casca QUALITÁ 120g</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Rúcula Higienizada QUALITÁ 170g</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Figo Roxo Bandeja 450g</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Espinafre QUALITÁ Unidade</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Manjericão Maço Unidade</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Damasco Seco QUALITÁ 150g</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Amendoim Japonês Qualitá Bandeja 200g</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Ovos Vermelho Extra QUALITÁ Bandeja 12 Unidades</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Acelga Japonesa Unidade</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Alho e Cebola com Ervas Finas QUALITÁ 200g</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Laranja Lima QUALITÁ 2kg</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Erva Doce QUALITÁ Bandeja 300g</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Tomate Pera Orgânico TAEQ Bandeja 250g</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Pepino Japonês QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Alface Crespa QUALITÁ Maço</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Ovos Vermelho Grandes QUALITÁ Bandeja com 6 Unidades</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Uva Passa Clara Importada sem Semente QUALITÁ 200g</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Tomate Holandês QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Agrião Orgânico TAEQ Unidade</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Salsa e Cebolinha Unidade</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Milho Verde QUALITÁ Bandeja 700g</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Alface Lisa Unidade</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Milho Original QUALITÁ 90g</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Tomilho CHINATOWN Pacote 10g</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Alho Roxo Especial Orgânico Taeq 150g</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Mamão Papaya Caixa 1,8kg</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Pimenta Vermelha QUALITÁ Bandeja 150g</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Banana Liofilizada QUALITÁ Pote 35g</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Escarola Unidade</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Tomate Italiano QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Kiwi SunGold ZESPRI 440g</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Atemoia a Granel Unidade</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Snack Orgânico Sabor Blueberry &amp; Maçã Nuts BIO2 Pacote 50g</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Gengibre QUALITÁ 250g</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Uva Passa Orgânica Importada TAEQ 250g</v>
+      </c>
+      <c r="B146" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Kiwi Sungold ZESPRI 460g</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Tomate Cereja Rama QUALITÁ 250g</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Feijão Carioca Orgânico Cozido no Vapor VAPZA Caixa 250g</v>
+      </c>
+      <c r="B149" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Maracujá Azedo a Granel 1 kg</v>
+      </c>
+      <c r="B150" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Brocolis Ninja e Couve Flor QUALITÁ Bandeja 300g</v>
+      </c>
+      <c r="B151" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Ovos Brancos Grande Qualitá Bandeja 10 Unidades</v>
+      </c>
+      <c r="B152" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Castanha-de-Caju Natural QUALITÁ Bandeja 180g</v>
+      </c>
+      <c r="B153" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Maçã Super FISCHER 700g</v>
+      </c>
+      <c r="B154" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Batata Doce Rosada 1kg</v>
+      </c>
+      <c r="B155" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Kiwi Green ZESPRI 460g</v>
+      </c>
+      <c r="B156" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Ameixa Importada a Granel 1 KG</v>
+      </c>
+      <c r="B157" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Banana Maçã Bandeja 400g</v>
+      </c>
+      <c r="B158" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Chuchu QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B159" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Cebolinha Picada Higienizado QUALITÁ Pote 70g</v>
+      </c>
+      <c r="B160" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Salsa Picada Higienizada QUALITÁ 70g</v>
+      </c>
+      <c r="B161" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Pêra Rocha QUALITÁ 800g</v>
+      </c>
+      <c r="B162" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Pimentão Block Vermelho Qualitá 150g</v>
+      </c>
+      <c r="B163" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Alface Roxa Orgânica TAEQ Unidade</v>
+      </c>
+      <c r="B164" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Brócolis Liofilizados QUALITÁ Pote 10g</v>
+      </c>
+      <c r="B165" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Manga Tommy com 2 unidades</v>
+      </c>
+      <c r="B166" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Snack Orgânico Sabor Abacaxi &amp; Amêndoa Nuts BIO2 Pacote 50g</v>
+      </c>
+      <c r="B167" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Abobrinha Brasileira Bandeja 800g</v>
+      </c>
+      <c r="B168" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Alho Roxo QUALITÁ Pacote 500g</v>
+      </c>
+      <c r="B169" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Orégano Qualitá Unidade</v>
+      </c>
+      <c r="B170" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Alho Picado sem Sal QUALITÁ 1kg</v>
+      </c>
+      <c r="B171" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Couve Manteiga Fatiada Grossa Higienizada QUALITÁ 180g</v>
+      </c>
+      <c r="B172" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Limão Siciliano Importado Granel 1kg</v>
+      </c>
+      <c r="B173" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Aspargo Branco Importado CAMPO SOL Pacote 450g</v>
+      </c>
+      <c r="B174" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Trio Alface Crespa, Roxa e Lisa Hidropônica Embalado 1 unidade</v>
+      </c>
+      <c r="B175" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Frango Desfiado Cozido a Vapor VAPZA Caixa 400g</v>
+      </c>
+      <c r="B176" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Ovos Branco Grandes QUALITÁ Bandeja com 6 Unidades</v>
+      </c>
+      <c r="B177" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Alho Poró Picado Higienizado QUALITÁ 70g</v>
+      </c>
+      <c r="B178" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Figo Roxo CANAÃ 300g</v>
+      </c>
+      <c r="B179" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Mandioquinha VAPZA 250g</v>
+      </c>
+      <c r="B180" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Pimentão Block Laranja TREBESCHI 150g</v>
+      </c>
+      <c r="B181" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Manjericão Orgânico TAEQ Unidade</v>
+      </c>
+      <c r="B182" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Pimenta Reino Grão CHINATOWN Pacote 30g</v>
+      </c>
+      <c r="B183" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Abóbora Moranga Unidade</v>
+      </c>
+      <c r="B184" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Uva QUALITÁ Pilar Moscato Sem Semente 500g</v>
+      </c>
+      <c r="B185" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Manga Orgânica TAEQ Bandeja 600g</v>
+      </c>
+      <c r="B186" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Abacate a Granel com 2 Unidades</v>
+      </c>
+      <c r="B187" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Tomate Italiano Orgânico TAEQ Bandeja 500g</v>
+      </c>
+      <c r="B188" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Amendoim Torrado e Salgado sem Pele QUALITÁ Bandeja 180g</v>
+      </c>
+      <c r="B189" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Ameixa com Caroço QUALITÁ 250g</v>
+      </c>
+      <c r="B190" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Pimentão Tricolor QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B191" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Vagem Holandesa QUALITÁ Bandeja 200g</v>
+      </c>
+      <c r="B192" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Tomate Caqui Bandeja 600g</v>
+      </c>
+      <c r="B193" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Mini Cenoura MISTER RABBITS Balls Pacote 250g</v>
+      </c>
+      <c r="B194" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Uva Crimson QUALITÁ 500g</v>
+      </c>
+      <c r="B195" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Abacaxi Hawai Super Unidade</v>
+      </c>
+      <c r="B196" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Tomate Orgânico para Molho TAEQ 500g</v>
+      </c>
+      <c r="B197" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Alho Roxo QUALITÁ Pacote 200g</v>
+      </c>
+      <c r="B198" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Abóbora Japonesa a Granel Unidade</v>
+      </c>
+      <c r="B199" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Vagem Macarrão QUALITÁ Bandeja 350g</v>
+      </c>
+      <c r="B200" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Pimentão Vermelho QUALITÁ Bandeja 300g</v>
+      </c>
+      <c r="B201" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Abóbora Paulista a Granel Unidade</v>
+      </c>
+      <c r="B202" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Banana Terra 1 kg</v>
+      </c>
+      <c r="B203" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Alho e Cebola Picados QUALITÁ 200g</v>
+      </c>
+      <c r="B204" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Abacaxi Desidratado TAEQ 55 g</v>
+      </c>
+      <c r="B205" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Agrião Higienizado QUALITÁ 170g</v>
+      </c>
+      <c r="B206" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Pêssego Orgânico TAEQ 400g</v>
+      </c>
+      <c r="B207" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Coentro e Cebolinha QUALITÁ Maço</v>
+      </c>
+      <c r="B208" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Salada Primavera QUALITÁ 170g</v>
+      </c>
+      <c r="B209" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Melão Amarelo Nacional Unidade</v>
+      </c>
+      <c r="B210" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Morango Nacional 250g</v>
+      </c>
+      <c r="B211" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Batata para Fritar QUALITÁ 1,5kg</v>
+      </c>
+      <c r="B212" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Pimentão Block Amarelo TREBESCHI 150g</v>
+      </c>
+      <c r="B213" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Damasco Seco QUALITÁ 300g</v>
+      </c>
+      <c r="B214" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Inhame QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B215" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Aspargo Verde Importado Maço</v>
+      </c>
+      <c r="B216" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Mamão Papaya Golden QUALITÁ 1,5kg</v>
+      </c>
+      <c r="B217" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Cebolinha Orgânica TAEQ Maço</v>
+      </c>
+      <c r="B218" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Orégano CHINATOWN Pacote 20g</v>
+      </c>
+      <c r="B219" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Pistache Torrado e Salgado QUALITÁ 150g</v>
+      </c>
+      <c r="B220" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Batata Doce Rosada QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B221" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Alho Picado sem Sal QUALITÁ Pote 200g</v>
+      </c>
+      <c r="B222" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Amendoim Torrado sem Pele Qualitá 180g</v>
+      </c>
+      <c r="B223" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Erva Doce KITANO Pacote 40g</v>
+      </c>
+      <c r="B224" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Milho Sweet CHICO BENTO Bandeja 450g</v>
+      </c>
+      <c r="B225" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Ovos Vermelho Grandes QUALITÁ Bandeja com 12 Unidades</v>
+      </c>
+      <c r="B226" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Berinjela a Granel 900g</v>
+      </c>
+      <c r="B227" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Tomate Caqui Orgânico TAEQ 500g</v>
+      </c>
+      <c r="B228" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Uva Red Globe QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B229" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Creme de Alho sem Sal ALHOFREE 200g</v>
+      </c>
+      <c r="B230" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Tomate Salada Orgânico TAEQ 500g</v>
+      </c>
+      <c r="B231" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Pepino Japonês 1kg</v>
+      </c>
+      <c r="B232" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Uva Thompson Clara Nacional QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B233" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Trio Rúcula/Agrião/Alface Crespa Hidropônico QUALITÁ Unidade</v>
+      </c>
+      <c r="B234" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Ovos Vermelho Grandes KORIN Bandeja com 10 Unidades</v>
+      </c>
+      <c r="B235" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Escarola Orgânica TAEQ Unidade</v>
+      </c>
+      <c r="B236" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Quiabo QUALITÁ Bandeja 250g</v>
+      </c>
+      <c r="B237" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Salsa e Cebolinha Picada Higienizada QUALITÁ Bandeja 70g</v>
+      </c>
+      <c r="B238" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Avelã sem Casca QUALITÁ Pacote 180g</v>
+      </c>
+      <c r="B239" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Tomate para Molho QUALITÁ Bandeja 600g</v>
+      </c>
+      <c r="B240" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Banana Desidratada TAEQ Pacote 55g</v>
+      </c>
+      <c r="B241" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Tomate Carmem QUALITÁ Bandeja 600g</v>
+      </c>
+      <c r="B242" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Ervilha Torta QUALITÁ Bandeja 200g</v>
+      </c>
+      <c r="B243" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Couve Manteiga QUALITÁ Unidade</v>
+      </c>
+      <c r="B244" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Salsa Orgânica TAEQ Maço</v>
+      </c>
+      <c r="B245" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Brócolis Ninja QUALITÁ Bandeja 300g</v>
+      </c>
+      <c r="B246" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Cheiro Verde Orgânico TAEQ Maço</v>
+      </c>
+      <c r="B247" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Mini Avocado Bandeja com 2 Unidades</v>
+      </c>
+      <c r="B248" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Gojiberry Seca Qualitá Bandeja 100g</v>
+      </c>
+      <c r="B249" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Escarola Higienizada QUALITÁ 170g</v>
+      </c>
+      <c r="B250" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Melão Verde Unidade</v>
+      </c>
+      <c r="B251" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Couve Brócolis Ninja 300g</v>
+      </c>
+      <c r="B252" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Batata Inglesa Orgânica TAEQ 600g</v>
+      </c>
+      <c r="B253" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Quinoa Orgânica Cozido no Vapor VAPZA Caixa 250g</v>
+      </c>
+      <c r="B254" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Mexerica Clementina Importada a Granel 1kg</v>
+      </c>
+      <c r="B255" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Espinafre Orgânico TAEQ Unidade</v>
+      </c>
+      <c r="B256" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>Pimentão Verde QUALITÁ Bandeja 300g</v>
+      </c>
+      <c r="B257" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Alface Crespa Unidade</v>
+      </c>
+      <c r="B258" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Alface Crespa Higienizada QUALITÁ 170g</v>
+      </c>
+      <c r="B259" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>Espinafre Higienizado QUALITÁ 170g</v>
+      </c>
+      <c r="B260" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Alho e Cebola sem Sal QUALITÁ Pote 1kg</v>
+      </c>
+      <c r="B261" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>Milho Sweet Milho TREBESCHI 450g</v>
+      </c>
+      <c r="B262" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Tomate Cereja QUALITÁ Bandeja 200g</v>
+      </c>
+      <c r="B263" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Tomate Orgânico Mini Italiano 300g</v>
+      </c>
+      <c r="B264" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>Couve Manteiga Orgânico TAEQ Unidade</v>
+      </c>
+      <c r="B265" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Mandioquinha QUALITÁ Bandeja 350g</v>
+      </c>
+      <c r="B266" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Goiaba Vermelha a Granel 1kg</v>
+      </c>
+      <c r="B267" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>Milho Apimentado QUALITÁ 90g</v>
+      </c>
+      <c r="B268" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Uva Passa Clara Importada sem Semente QUALITÁ 250g</v>
+      </c>
+      <c r="B269" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Castanha do Pará Orgânica TAEQ 100g</v>
+      </c>
+      <c r="B270" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Berinjela Comum QUALITÁ Bandeja 400g</v>
+      </c>
+      <c r="B271" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Batata Aperitivo QUALITÁ Pacote 1kg</v>
+      </c>
+      <c r="B272" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Uva Mista sem Semente QUALITÁ 500g</v>
+      </c>
+      <c r="B273" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>Abobrinha Italiana QUALITÁ Bandeja 400g</v>
+      </c>
+      <c r="B274" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Repolho Verde Orgânico TAEQ 400g</v>
+      </c>
+      <c r="B275" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>Banana Orgânica BanaLeve 600g</v>
+      </c>
+      <c r="B276" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>Pêssego Importado a Granel 1kg</v>
+      </c>
+      <c r="B277" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Snack Orgânico Sabor Cranberry &amp; Amêndoa Nuts BIO2 Pacote 50g</v>
+      </c>
+      <c r="B278" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Salada Americana Higienizada QUALITÁ 170g</v>
+      </c>
+      <c r="B279" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Manjericão CHINATOWN Pacote 20g</v>
+      </c>
+      <c r="B280" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>Beterraba QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B281" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>Repolho Verde Unidade</v>
+      </c>
+      <c r="B282" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>Mandioquinha (Batata Baroa) a Granel 500g</v>
+      </c>
+      <c r="B283" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Alface Mimosa Orgânica TAEQ Unidade</v>
+      </c>
+      <c r="B284" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>Coentro Orgânico TAEQ Maço</v>
+      </c>
+      <c r="B285" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>Acelga Orgânica TAEQ Unidade</v>
+      </c>
+      <c r="B286" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>Alface Mimosa Hidropônica Embalada Unidade</v>
+      </c>
+      <c r="B287" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>Repolho Roxo Unidade</v>
+      </c>
+      <c r="B288" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Alface Americana Bola 250g</v>
+      </c>
+      <c r="B289" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Pepino Caipira QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B290" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Coloral CHINATOWN Pacote 50g</v>
+      </c>
+      <c r="B291" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>Rúcula Maço Unidade</v>
+      </c>
+      <c r="B292" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>Pimentas Suave QUALITÁ Bandeja 250g</v>
+      </c>
+      <c r="B293" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>Morango Orgânico Bandeja 250g</v>
+      </c>
+      <c r="B294" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>Mini Tomate para Salada QUALITÁ 200g</v>
+      </c>
+      <c r="B295" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>Cenoura Comum QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B296" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>Tomate Longa Vida Maduro Qualitá 600g</v>
+      </c>
+      <c r="B297" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>Couve Flor QUALITÁ 300g</v>
+      </c>
+      <c r="B298" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>Jiló QUALITÁ Bandeja 350g</v>
+      </c>
+      <c r="B299" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>Pepino Comum QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B300" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>Maçã Gala Orgânica Importada Pacote 600g</v>
+      </c>
+      <c r="B301" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>Ovos Vermelho Extra QUALITÁ Bandeja com 20 Unidades</v>
+      </c>
+      <c r="B302" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>Alho e Cebola com Salsinha QUALITÁ 200g</v>
+      </c>
+      <c r="B303" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>Laranja Pera QUALITÁ 3kg</v>
+      </c>
+      <c r="B304" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>Abobrinha Brasileira Orgânica TAEQ Bandeja 600g</v>
+      </c>
+      <c r="B305" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>Nectarina Importada a Granel 1kg</v>
+      </c>
+      <c r="B306" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>Batata Doce Rosada Bandeja 400g</v>
+      </c>
+      <c r="B307" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Almeirão Orgânico TAEQ Unidade</v>
+      </c>
+      <c r="B308" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>Uva Summer Royal QUALITÁ Bandeja 500g</v>
+      </c>
+      <c r="B309" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>Pimentão Verde 500g</v>
+      </c>
+      <c r="B310" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>Hortelã Orgânico TAEQ Unidade</v>
+      </c>
+      <c r="B311" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>Inhame Bandeja 1kg</v>
+      </c>
+      <c r="B312" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>Uva Passa Escura sem Semente QUALITÁ Pote 250g</v>
+      </c>
+      <c r="B313" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>Alface Americana Higienizada QUALITÁ 170g</v>
+      </c>
+      <c r="B314" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>Chimi Churri CHINATOWN 30g</v>
+      </c>
+      <c r="B315" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>Manga Palmer com 2 Unidades</v>
+      </c>
+      <c r="B316" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>Coco Verde Unidade</v>
+      </c>
+      <c r="B317" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>Ovos Branco Extra QUALITÁ Bandeja 12 Unidades</v>
+      </c>
+      <c r="B318" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>Maçã Pra Valer Pacote 1kg</v>
+      </c>
+      <c r="B319" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>Louro em Folhas CHINATOWN Pacote 4g</v>
+      </c>
+      <c r="B320" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>Kiwi Importado a Granel 1 kg</v>
+      </c>
+      <c r="B321" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>Melão Orange Unidade</v>
+      </c>
+      <c r="B322" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>Mamão Papaya Sunrise 1,2kg</v>
+      </c>
+      <c r="B323" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>Melão Dino Unidade</v>
+      </c>
+      <c r="B324" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>Maçã TURMA DA MÔNICA Pacote 1kg</v>
+      </c>
+      <c r="B325" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>Maçã Nacional QUALITÁ Pacote 1kg</v>
+      </c>
+      <c r="B326" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>Alho Granulado KITANO Pacote 60g</v>
+      </c>
+      <c r="B327" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>Gengibre a Granel 200g</v>
+      </c>
+      <c r="B328" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>Salsa CHINATOWN Pacote 20g</v>
+      </c>
+      <c r="B329" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>Canela em Pó CHINATOWN Pacote 40g</v>
+      </c>
+      <c r="B330" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>Tangerina Ponkam 500g</v>
+      </c>
+      <c r="B331" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>Laranja Bahia Importada Pacote 900g</v>
+      </c>
+      <c r="B332" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>Maçã LADYBUG 1kg</v>
+      </c>
+      <c r="B333" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>Mirtillo Berrygood 125g</v>
+      </c>
+      <c r="B334" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
         <v/>
+      </c>
+      <c r="B335" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v/>
+      </c>
+      <c r="B336" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v/>
+      </c>
+      <c r="B337" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v/>
+      </c>
+      <c r="B338" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v/>
+      </c>
+      <c r="B339" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v/>
+      </c>
+      <c r="B340" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v/>
+      </c>
+      <c r="B341" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v/>
+      </c>
+      <c r="B342" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v/>
+      </c>
+      <c r="B343" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v/>
+      </c>
+      <c r="B344" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v/>
+      </c>
+      <c r="B345" t="str">
+        <v>Feira</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v/>
+      </c>
+      <c r="B346" t="str">
+        <v>Feira</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D346"/>
   </ignoredErrors>
 </worksheet>
 </file>